--- a/COVID19Data/Italy.xlsx
+++ b/COVID19Data/Italy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
   <si>
     <t>date</t>
   </si>
@@ -270,6 +270,19 @@
   <si>
     <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200428</t>
+  </si>
+  <si>
+    <t>20200429</t>
+  </si>
+  <si>
+    <t>20200430</t>
   </si>
   <si>
     <t>0</t>
@@ -658,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2450,6 +2463,526 @@
         <v>2324</v>
       </c>
     </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1739</v>
+      </c>
+      <c r="F90">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2091</v>
+      </c>
+      <c r="F91">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>2086</v>
+      </c>
+      <c r="F92">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20200501</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1872</v>
+      </c>
+      <c r="F93">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20200502</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1965</v>
+      </c>
+      <c r="F94">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20200503</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1900</v>
+      </c>
+      <c r="F95">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20200504</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1389</v>
+      </c>
+      <c r="F96">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20200505</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1221</v>
+      </c>
+      <c r="F97">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20200506</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1075</v>
+      </c>
+      <c r="F98">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20200507</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1444</v>
+      </c>
+      <c r="F99">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20200508</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1401</v>
+      </c>
+      <c r="F100">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20200509</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1327</v>
+      </c>
+      <c r="F101">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20200510</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1083</v>
+      </c>
+      <c r="F102">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20200511</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>802</v>
+      </c>
+      <c r="F103">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20200512</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>744</v>
+      </c>
+      <c r="F104">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20200513</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1402</v>
+      </c>
+      <c r="F105">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20200514</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>888</v>
+      </c>
+      <c r="F106">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20200515</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>992</v>
+      </c>
+      <c r="F107">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20200516</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>789</v>
+      </c>
+      <c r="F108">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20200517</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>875</v>
+      </c>
+      <c r="F109">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20200518</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>675</v>
+      </c>
+      <c r="F110">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20200519</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>451</v>
+      </c>
+      <c r="F111">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20200520</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>813</v>
+      </c>
+      <c r="F112">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20200521</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>665</v>
+      </c>
+      <c r="F113">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20200522</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>642</v>
+      </c>
+      <c r="F114">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20200523</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>652</v>
+      </c>
+      <c r="F115">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
